--- a/hata modeli.xlsx
+++ b/hata modeli.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24450" windowHeight="8925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24450" windowHeight="8925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="tips" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Gerçek Fiyat ( y )</t>
   </si>
@@ -42,6 +43,27 @@
   </si>
   <si>
     <t xml:space="preserve"> Ortalama Kare Hata değeri </t>
+  </si>
+  <si>
+    <t>ortalaması</t>
+  </si>
+  <si>
+    <t>toplamı</t>
+  </si>
+  <si>
+    <t>fark</t>
+  </si>
+  <si>
+    <t>karesi</t>
+  </si>
+  <si>
+    <t>toplam/(n-1)</t>
+  </si>
+  <si>
+    <t>sonuc</t>
+  </si>
+  <si>
+    <t>standart sapma</t>
   </si>
 </sst>
 </file>
@@ -750,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,4 +1223,211 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" ref="D5:D8" si="0">G5*E5</f>
+        <v>33.979999999999997</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="H5">
+        <f>G5-G10</f>
+        <v>-2.3320000000000043</v>
+      </c>
+      <c r="I5">
+        <f>H5*H5</f>
+        <v>5.4382240000000204</v>
+      </c>
+      <c r="J5">
+        <f>I11/4</f>
+        <v>33.926970000000004</v>
+      </c>
+      <c r="K5">
+        <f>SQRT(J5)</f>
+        <v>5.8246862576451282</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>31.02</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>10.34</v>
+      </c>
+      <c r="H6">
+        <f>G6-G10</f>
+        <v>-8.9820000000000029</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I9" si="1">H6*H6</f>
+        <v>80.676324000000051</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>63.03</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>21.01</v>
+      </c>
+      <c r="H7">
+        <f>G7-G10</f>
+        <v>1.6879999999999988</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>2.8493439999999959</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>47.36</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>23.68</v>
+      </c>
+      <c r="H8">
+        <f>G8-G10</f>
+        <v>4.357999999999997</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>18.992163999999974</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>G9*E9</f>
+        <v>98.36</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>24.59</v>
+      </c>
+      <c r="H9">
+        <f>G9-G10</f>
+        <v>5.2679999999999971</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>27.751823999999971</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(G5:G9)</f>
+        <v>19.322000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>SUM(D5:D10)</f>
+        <v>273.75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <f>SUM(G5:G9)</f>
+        <v>96.610000000000014</v>
+      </c>
+      <c r="I11">
+        <f>SUM(I5:I9)</f>
+        <v>135.70788000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <f>_xlfn.STDEV.S(G5,G6,G7,G8,G9)</f>
+        <v>5.8246862576451068</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f>AVERAGE(G18:G22)</f>
+        <v>2.6179999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>